--- a/biology/Médecine/1517_en_santé_et_médecine/1517_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1517_en_santé_et_médecine/1517_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1517_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1517_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1517 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1517_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1517_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Épidémie de suette en Angleterre, avec une forte mortalité à Oxford ou Cambridge, qui atteint cinquante pour cent dans certaines villes, alors que, sur le continent, on n'observe que quelques cas à Calais et Anvers[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Épidémie de suette en Angleterre, avec une forte mortalité à Oxford ou Cambridge, qui atteint cinquante pour cent dans certaines villes, alors que, sur le continent, on n'observe que quelques cas à Calais et Anvers.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1517_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1517_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +555,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Hans von Gersdorff (c.1455-1529) : Feldbuch der Wundarzney (« Manuel de chirurgie[2],[3] »).
-Nicolaus Pol (en) (c.1467-1532) : De cura morbi Gallici per lignum guaycanum (« Traitement du mal français  par le bois de gaïac[4] »).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hans von Gersdorff (c.1455-1529) : Feldbuch der Wundarzney (« Manuel de chirurgie, »).
+Nicolaus Pol (en) (c.1467-1532) : De cura morbi Gallici per lignum guaycanum (« Traitement du mal français  par le bois de gaïac »).</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1517_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1517_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,12 +588,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10 mai : Leonardo Fioravanti (mort en 1588), médecin italien[5],[6].
-29 juin : Rembert Dodoens (mort en 1585), médecin des Pays-Bas bourguignons[7].
-25 juillet : Jacques Peletier du Mans (mort en 1582 ou 1583) : poète français, membre de la Pléiade, mais aussi grammairien, philosophe, mathématicien et médecin[8].
-Pierre Belon (mort en 1564), apothicaire et naturaliste français[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>10 mai : Leonardo Fioravanti (mort en 1588), médecin italien,.
+29 juin : Rembert Dodoens (mort en 1585), médecin des Pays-Bas bourguignons.
+25 juillet : Jacques Peletier du Mans (mort en 1582 ou 1583) : poète français, membre de la Pléiade, mais aussi grammairien, philosophe, mathématicien et médecin.
+Pierre Belon (mort en 1564), apothicaire et naturaliste français.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1517_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1517_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +623,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12 novembre : Antonio De Ferrariis (né en 1444 ou 1448), médecin et humaniste italien, attaché à la cour de Ferdinand Ier à Naples, praticien à Gallipoli dans le Salente, et auteur de nombreux ouvrages dont un traité sur la goutte (De podagra[10]).
-Antonio Scanaroli (it) (né en 1450), médecin italien[11].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12 novembre : Antonio De Ferrariis (né en 1444 ou 1448), médecin et humaniste italien, attaché à la cour de Ferdinand Ier à Naples, praticien à Gallipoli dans le Salente, et auteur de nombreux ouvrages dont un traité sur la goutte (De podagra).
+Antonio Scanaroli (it) (né en 1450), médecin italien.
 </t>
         </is>
       </c>
